--- a/biology/Médecine/Naftidrofuryl/Naftidrofuryl.xlsx
+++ b/biology/Médecine/Naftidrofuryl/Naftidrofuryl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le naftidrofuryl est une molécule utilisée comme médicament de la classe des vasodilatateurs périphériques.
@@ -512,9 +524,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'artériopathie oblitérante des membres inférieurs symptomatique (claudication intermittente), il améliore significativement le périmètre de marche[2]. Il n'existe cependant pas de données sur l'évolution de la maladie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'artériopathie oblitérante des membres inférieurs symptomatique (claudication intermittente), il améliore significativement le périmètre de marche. Il n'existe cependant pas de données sur l'évolution de la maladie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Tolérance et effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molécule a une bonne tolérance. L'effet secondaire le plus fréquent est d'ordre gastrique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule a une bonne tolérance. L'effet secondaire le plus fréquent est d'ordre gastrique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Avantages / inconvénients, mis sur la liste noire de la revue Prescrire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vendu comme médicament (Praxilène ou autre, pour la claudication intermittente ischémique liée à une artériopathie des membres inférieurs), le naftidrofuryl a été ajoutée (avec 11 autres) en 2020 à la liste noire des médicaments aux effets indésirables disproportionnés par rapport à leur faible efficacité ou à la bénignité de la situation clinique dans laquelle ils sont autorisés (liste publiée annuellement par la revue médicale Prescrire)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vendu comme médicament (Praxilène ou autre, pour la claudication intermittente ischémique liée à une artériopathie des membres inférieurs), le naftidrofuryl a été ajoutée (avec 11 autres) en 2020 à la liste noire des médicaments aux effets indésirables disproportionnés par rapport à leur faible efficacité ou à la bénignité de la situation clinique dans laquelle ils sont autorisés (liste publiée annuellement par la revue médicale Prescrire).
 </t>
         </is>
       </c>
